--- a/input/data__.xlsx
+++ b/input/data__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\Scraper_SUNEDU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB2B1BC-BEF0-4A16-B9C2-72D86432DDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9706FD26-2C6E-4F6A-BDD8-BF40598C3777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="180" windowWidth="11340" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -86,12 +86,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,23 +376,26 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" activeCellId="1" sqref="A4:XFD4 A5:XFD5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>46432891</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>32224811</v>
       </c>
     </row>
